--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akash Kumar\Downloads\KWE_Intel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721FEA5B-1771-44E0-A9C7-15536863654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244F74B-AD3D-4231-9AD6-A936A5DB4382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -502,9 +502,6 @@
     <t>AbbyOutputFolder</t>
   </si>
   <si>
-    <t>Abby Output</t>
-  </si>
-  <si>
     <t>BRE_ExcelFileSize</t>
   </si>
   <si>
@@ -620,6 +617,9 @@
   </si>
   <si>
     <t>&lt;p&gt;Hello All&lt;br&gt;&lt;br&gt;Please find the attached status report for the month of MonthYear&lt;br&gt;&lt;br&gt;Thanks,&lt;br&gt;Intel Bot&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Abby Output_KWE Intel</t>
   </si>
 </sst>
 </file>
@@ -998,8 +998,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1268,7 +1268,7 @@
         <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1"/>
@@ -2249,7 +2249,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -2638,7 +2638,7 @@
         <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
@@ -2683,90 +2683,90 @@
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
         <v>155</v>
-      </c>
-      <c r="B51" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" t="s">
         <v>157</v>
-      </c>
-      <c r="B52" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
         <v>159</v>
-      </c>
-      <c r="B53" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
       <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
         <v>161</v>
-      </c>
-      <c r="B54" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
         <v>163</v>
-      </c>
-      <c r="B55" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
         <v>165</v>
-      </c>
-      <c r="B56" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
         <v>167</v>
-      </c>
-      <c r="B57" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" t="s">
         <v>169</v>
-      </c>
-      <c r="B58" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" t="s">
         <v>172</v>
-      </c>
-      <c r="B59" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1">
       <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" t="s">
         <v>174</v>
-      </c>
-      <c r="B60" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
       <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="s">
         <v>176</v>
-      </c>
-      <c r="B61" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2808,68 +2808,68 @@
     <row r="70" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="71" spans="1:2" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" customHeight="1"/>
